--- a/swings/2021-11-22/BINANCE_SPOT_FTM_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_FTM_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>2.0125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>2.0522</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +831,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>2.0205</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>2.0388</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>2.0011</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1053,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1108,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>2.0359</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1163,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1216,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>1.9687</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1379,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1399,6 +1434,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>2.011</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1451,6 +1489,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1505,6 +1544,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>1.9899</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1601,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>2.0006</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>1.962</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1768,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>2.0041</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1773,6 +1825,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>1.9816</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1827,6 +1882,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>2.0029</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1937,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1931,6 +1990,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1983,6 +2043,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2035,6 +2096,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2149,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2257,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>1.9514</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2247,6 +2314,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>1.993</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2371,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>1.975</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2353,6 +2426,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2405,6 +2479,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2459,6 +2534,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2511,6 +2589,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2565,6 +2644,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>1.988</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2619,6 +2701,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>2.01</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2758,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>1.9871</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2813,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2868,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>2.0345</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2833,6 +2925,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>2.0166</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2887,6 +2982,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>2.036</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2939,6 +3037,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3090,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3043,6 +3143,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3097,6 +3198,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>2.003</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3253,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3306,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3253,6 +3359,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3305,6 +3412,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3359,6 +3467,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>2.0338</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3524,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>2.0225</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3465,6 +3579,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3517,6 +3632,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3571,6 +3687,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>2.0472</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3623,6 +3742,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3675,6 +3795,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3729,6 +3850,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>1.9924</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3781,6 +3905,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3833,6 +3958,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3885,6 +4011,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3937,6 +4064,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3989,6 +4117,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4041,6 +4170,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4095,6 +4225,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>2.0427</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4147,6 +4280,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4201,6 +4335,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>2.0126</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4255,6 +4392,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>2.0276</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4307,6 +4447,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4359,6 +4500,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4411,6 +4553,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4465,6 +4608,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4519,6 +4665,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>2.0343</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4571,6 +4720,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4623,6 +4773,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4675,6 +4826,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4727,6 +4879,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4781,6 +4934,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>1.958</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4833,6 +4989,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4887,6 +5044,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>2.071</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4941,6 +5101,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>2.0401</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4995,6 +5158,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>2.062</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5047,6 +5213,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5101,6 +5268,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>2.0159</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5153,6 +5323,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5207,6 +5378,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>2.0331</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5261,6 +5435,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>2.0029</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5315,6 +5492,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>2.0247</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5369,6 +5549,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>2.007</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5423,6 +5606,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>2.0205</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5477,6 +5663,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>2.007</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5529,6 +5718,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5581,6 +5771,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5635,6 +5826,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>2.0246</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5689,6 +5883,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>1.995</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5741,6 +5938,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5793,6 +5991,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5847,6 +6046,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>2.0199</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5899,6 +6101,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5951,6 +6154,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6005,6 +6209,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>1.995</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6059,6 +6266,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>2.0019</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6113,6 +6323,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>1.9852</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6167,6 +6380,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>1.992</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6221,6 +6437,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6275,6 +6494,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>1.9899</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6327,6 +6549,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6379,6 +6602,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6431,6 +6655,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6483,6 +6708,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6535,6 +6761,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6589,6 +6816,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>1.9532</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6643,6 +6873,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>1.9878</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6695,6 +6928,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6749,6 +6983,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>1.9211</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6803,6 +7040,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>1.9459</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6855,6 +7095,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6909,6 +7150,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>1.9218</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6963,6 +7207,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>1.945</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7017,6 +7264,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>1.926</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7069,6 +7319,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7123,6 +7374,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>1.9441</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7175,6 +7429,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7229,6 +7484,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>1.9214</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7281,6 +7539,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7333,6 +7592,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7387,6 +7647,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>1.9588</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7441,6 +7704,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>1.9366</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7493,6 +7759,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7547,6 +7814,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>1.9686</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7601,6 +7871,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>1.9512</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7653,6 +7926,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7705,6 +7979,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7757,6 +8032,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7811,6 +8087,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>1.9786</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7863,6 +8142,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7915,6 +8195,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7967,6 +8248,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8019,6 +8301,7 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8073,6 +8356,9 @@
           <t>FTMUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>1.9402</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8126,6 +8412,9 @@
         <is>
           <t>FTMUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>1.9529</v>
       </c>
     </row>
   </sheetData>
